--- a/biology/Médecine/Mèche_(pansement)/Mèche_(pansement).xlsx
+++ b/biology/Médecine/Mèche_(pansement)/Mèche_(pansement).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A8che_(pansement)</t>
+          <t>Mèche_(pansement)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La mèche est un type de pansement textile. 
-En position interne, elle sert à empêcher la cicatrisation d'une blessure profonde avant que le tissu ne se soit reformé. Si l'on laissait ce genre de blessure cicatriser rapidement, il y aurait une dépression à son niveau sur la peau. La mèche peut servir aussi à permettre le drainage d'une plaie[1].
+En position interne, elle sert à empêcher la cicatrisation d'une blessure profonde avant que le tissu ne se soit reformé. Si l'on laissait ce genre de blessure cicatriser rapidement, il y aurait une dépression à son niveau sur la peau. La mèche peut servir aussi à permettre le drainage d'une plaie.
 L'application d'une mèche peut être très douloureuse c'est pourquoi il est conseillé de prendre un antalgique une demi-heure avant le soin[réf. souhaitée]. La douleur s'estompe au fur et à mesure que la plaie guérit.
 La mèche désigne de façon moins spécifique une portion de bande de gaze en coton hydrophile, qui sert à nettoyer une plaie, et réaliser une compresse (pansement externe).
 </t>
